--- a/SRC/FlowChart/inFunc_GetCardFields_CTLS.xlsx
+++ b/SRC/FlowChart/inFunc_GetCardFields_CTLS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>inFunc_GetCardFields_CTLS</t>
   </si>
@@ -31,15 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EMVCL_InitTransactionEx(szACTData):根據文件描述，啟動 EMV 非接觸式交易。交易結果必須通過 EMVCL_PerformTransactionEx 函數獲取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. inCTLS_SendReadyForSale_Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inCTLS_Decide_Display_Image:顯示對應交易別的感應畫面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -49,32 +41,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>螢幕顯示金額</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>while迴圈判斷感應事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>while迴圈判斷感應事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ulCTLS_CheckResponseCode_SALE</t>
   </si>
   <si>
-    <t>inCTLS_ReceiveReadyForSales_Flow &gt;
- ulCTLS_ReceiveReadyForSales_Internal &gt;
- EMVCL_PerformTransactionEx(&amp;szRCDataEx):此功能用於執行交易並獲取由 EMVCL_InitTransactionEx 發起的交易結果，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inCTLS_UnPackReadyForSale_Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pobTran-&gt;srBRec.uszContactlessBit = VS_TRUE</t>
+    <t>inCTLS_Decide_Display_Image:顯示對應交易別的感應畫面(一般交易/銀聯一般交易)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螢幕顯示金額，設定倒數剩餘時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果為刷卡事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCTLS_CancelTransacton_Flow取消感應交易，inFunc_ResetTitle重新顯示img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCARD_GetTrack123 取得track1、track2、track3，inCARD_unPackCard取得服務碼、卡號、有效日期、持卡人等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCARD_GetBin &gt;inCARD_LoadGetCDTIndex 感覺像取得pobTran-&gt;srBRec.inCDTIndex和pobTran-&gt;srBRec.inHDTIndex = inHDTIndex之類的(不懂)，檢查卡號長度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCARD_ValidTrack2_PAN看起來是驗證track2的pan(不懂)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMVCL_InitTransactionEx(szACTData):根據文件描述，啟動 EMV 非接觸式交易。交易結果必須通過 EMVCL_PerformTransactionEx 函數獲取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCheckFallbackFlag 比對交易類型不在某些類型中且 serviceCode 開頭不是"2"或是 "6"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCARD_ValidTrack2_ExpDate 看起來是檢查信用卡上面的日期是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Decide_MEG_TRT 根據交易類型，設定pobTran-&gt;inRunTRTID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果為手動輸入事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pobTran-&gt;inMenuKeyin = (int)szKey，szKey為0~9，
+執行inCREDIT_Func_Get_Card_Number 顯示img(請輸入卡號)，設定螢幕靠右、限制卡號最長長度，MenuKeyIn第一位數，inDISP_Enter8x16_MenuKeyIn 輸入為數字，判斷卡號長度，並顯示卡號在螢幕上靠右，輸入超時或是取消return結束function，輸入enter return卡號長度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCARD_Generate_Special_Card判斷卡號長度為11，組U_CARD卡號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分交易類型不能輸入檢查碼 跑inCREDIT_Func_Get_Exp_Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螢幕顯示img(請輸入有效期)，輸入的格式為"MMYY= " + 輸入日期  +靠右，當輸入長度為四，取出年月</t>
+  </si>
+  <si>
+    <t>inCREDIT_Func_Get_CheckNO_ExpDate_Flow</t>
+  </si>
+  <si>
+    <t>顯示img(輸入檢查碼 輸入有效期 請選擇？)，
+按下數字1或是點選檢查碼，執行inCREDIT_Func_Get_CheckNO，
+顯示img(請輸入檢查碼)，執行inDISP_Enter8x16顯示"Check No.= " + 檢查碼，
+執行inCARD_ExpDateEncryptAndDecrypt(不懂)，核對第十碼卡號。
+按下數字二執行inCREDIT_Func_Get_Exp_Date，參考上述。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果為感應事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">因為內圈的while收到交易結果，所以判斷srCtlsObj.lnSaleRespCode == d_EMVCL_RC_DATA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">執行inCTLS_UnPackReadyForSale_Flow </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCTLS_UnPackReadyForSale_Internal(不懂)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判斷inCARD_GetBin、inCARD_ValidTrack2_PAN、inCARD_ValidTrack2_ExpDate、inNCCC_Func_Decide_MEG_TRT 根據交易類型，設定pobTran-&gt;inRunTRTID ，參考上述。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走信用卡流程，判斷inCARD_GetBin、inCARD_ValidTrack2_PAN、inCARD_ValidTrack2_ExpDate ，設定pobTran-&gt;inRunTRTID ，參考上述。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while判斷接收事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ulCTLS_ReceiveReadyForSales_Internal</t>
+  </si>
+  <si>
+    <t>EMVCL_PerformTransactionEx 獲得 發起的交易結果(szRCDataEx)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是人工輸入事件，ginEventCode = _MENUKEYIN_EVENT_，如果輸入*字鍵，轉為銀聯一般交易，顯示img、led閃爍、金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有收到事件，跳出接收事件迴圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是感應事件，inCTLS_ReceiveReadyForSales_Flow，ginEventCode = _SENSOR_EVENT_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是插卡事件，inEMV_ICCEvent &gt; CTOS_SCStatus 偵測晶片插卡事件，ginEventCode = _EMV_DO_EVENT_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是刷卡事件，inCARD_MSREvent &gt; CTOS_MSRRead 取得track123，ginEventCode = _SWIPE_EVENT_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,18 +506,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="208.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="180.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="148.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -426,12 +526,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -449,30 +549,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -481,13 +581,142 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>12</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="3:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/FlowChart/inFunc_GetCardFields_CTLS.xlsx
+++ b/SRC/FlowChart/inFunc_GetCardFields_CTLS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>inFunc_GetCardFields_CTLS</t>
   </si>
@@ -72,19 +72,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inCARD_ValidTrack2_PAN看起來是驗證track2的pan(不懂)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EMVCL_InitTransactionEx(szACTData):根據文件描述，啟動 EMV 非接觸式交易。交易結果必須通過 EMVCL_PerformTransactionEx 函數獲取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>inCheckFallbackFlag 比對交易類型不在某些類型中且 serviceCode 開頭不是"2"或是 "6"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inCARD_ValidTrack2_ExpDate 看起來是檢查信用卡上面的日期是否有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,6 +167,14 @@
   </si>
   <si>
     <t>如果是刷卡事件，inCARD_MSREvent &gt; CTOS_MSRRead 取得track123，ginEventCode = _SWIPE_EVENT_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCARD_ValidTrack2_PAN，卡號從右至左(不包含最後一位)，偶數位乘以權重2，加總後再取十位數和個位數相加取總合，最後一碼加上總合結果mod 10，用來判別卡號正確性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCARD_ValidTrack2_ExpDate 判斷有效期是否正確</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -525,9 +525,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -539,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -552,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.3">
@@ -592,68 +589,68 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="45" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="3:6" ht="75" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
@@ -663,60 +660,60 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/FlowChart/inFunc_GetCardFields_CTLS.xlsx
+++ b/SRC/FlowChart/inFunc_GetCardFields_CTLS.xlsx
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inCARD_GetBin &gt;inCARD_LoadGetCDTIndex 感覺像取得pobTran-&gt;srBRec.inCDTIndex和pobTran-&gt;srBRec.inHDTIndex = inHDTIndex之類的(不懂)，檢查卡號長度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EMVCL_InitTransactionEx(szACTData):根據文件描述，啟動 EMV 非接觸式交易。交易結果必須通過 EMVCL_PerformTransactionEx 函數獲取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +171,10 @@
   </si>
   <si>
     <t>inCARD_ValidTrack2_ExpDate 判斷有效期是否正確</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCARD_GetBin &gt;inCARD_LoadGetCDTIndex 感覺像取得pobTran-&gt;srBRec.inCDTIndex和pobTran-&gt;srBRec.inHDTIndex = inHDTIndex之類的(透過CDTindex取得HDT的主機代號)，檢查卡號長度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +509,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.3">
@@ -584,73 +584,73 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="45" x14ac:dyDescent="0.3">
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="3:6" ht="75" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
@@ -660,60 +660,60 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
